--- a/00_基盤/00_EBS基盤/TE070/TE070_JP1用シェル設計書(ログリプレース).xlsx
+++ b/00_基盤/00_EBS基盤/TE070/TE070_JP1用シェル設計書(ログリプレース).xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ii\work\障害・問い合わせ\19165 VNCログパージ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19101～19200\E_本稼動_19165【基盤】bebscon#1,2,3のhomeのログパージ\30_障害対応\20_成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18270" yWindow="270" windowWidth="17940" windowHeight="12180" tabRatio="807" activeTab="6"/>
+    <workbookView xWindow="20610" yWindow="270" windowWidth="17940" windowHeight="12180" tabRatio="807" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -19,40 +19,47 @@
     <sheet name="テスト仕様_テスト・シナリオ" sheetId="24" r:id="rId5"/>
     <sheet name="テスト仕様_データ・プロファイル" sheetId="25" r:id="rId6"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)" sheetId="33" r:id="rId7"/>
-    <sheet name="不具合ログ" sheetId="26" r:id="rId8"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="27" r:id="rId9"/>
+    <sheet name="テスト仕様_テスト結果(障害対応)" sheetId="34" r:id="rId8"/>
+    <sheet name="不具合ログ" sheetId="26" r:id="rId9"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="27" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" localSheetId="6" hidden="1">[1]テーブル仕様!#REF!</definedName>
+    <definedName name="_Fill" localSheetId="7" hidden="1">[1]テーブル仕様!#REF!</definedName>
     <definedName name="_Fill" hidden="1">[1]テーブル仕様!#REF!</definedName>
     <definedName name="_Regression_X" localSheetId="6" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="7" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
     <definedName name="_Toc22116235" localSheetId="3">標準適合チェック!$A$2</definedName>
     <definedName name="_Toc22116236" localSheetId="4">テスト仕様_テスト・シナリオ!$A$2</definedName>
     <definedName name="_Toc22116239" localSheetId="5">テスト仕様_データ・プロファイル!$A$2</definedName>
-    <definedName name="_Toc22116241" localSheetId="7">不具合ログ!$A$2</definedName>
-    <definedName name="_Toc498334709" localSheetId="8">未完了の課題と完了済みの課題!$A$2</definedName>
-    <definedName name="_Toc498334710" localSheetId="8">未完了の課題と完了済みの課題!$A$5</definedName>
-    <definedName name="_Toc498334711" localSheetId="8">未完了の課題と完了済みの課題!$A$12</definedName>
+    <definedName name="_Toc22116241" localSheetId="8">不具合ログ!$A$2</definedName>
+    <definedName name="_Toc498334709" localSheetId="9">未完了の課題と完了済みの課題!$A$2</definedName>
+    <definedName name="_Toc498334710" localSheetId="9">未完了の課題と完了済みの課題!$A$5</definedName>
+    <definedName name="_Toc498334711" localSheetId="9">未完了の課題と完了済みの課題!$A$12</definedName>
     <definedName name="_Toc75175702" localSheetId="1">文書管理!$A$2</definedName>
     <definedName name="_Toc75175703" localSheetId="1">文書管理!$A$5</definedName>
-    <definedName name="_Toc75175704" localSheetId="1">文書管理!$A$14</definedName>
-    <definedName name="_Toc75175705" localSheetId="1">文書管理!$A$24</definedName>
+    <definedName name="_Toc75175704" localSheetId="1">文書管理!$A$15</definedName>
+    <definedName name="_Toc75175705" localSheetId="1">文書管理!$A$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">テスト仕様_データ・プロファイル!$A$1:$C$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">テスト仕様_テスト・シナリオ!$A$1:$I$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'テスト仕様_テスト結果(テスト・シナリオ1)'!$A$1:$I$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'テスト仕様_テスト結果(障害対応)'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$38</definedName>
     <definedName name="TitleEnd" localSheetId="1">文書管理!$A$5</definedName>
     <definedName name="サンプル" localSheetId="6" hidden="1">#REF!</definedName>
+    <definedName name="サンプル" localSheetId="7" hidden="1">#REF!</definedName>
     <definedName name="サンプル" hidden="1">#REF!</definedName>
     <definedName name="タスクドキュメント１" localSheetId="6" hidden="1">#REF!</definedName>
+    <definedName name="タスクドキュメント１" localSheetId="7" hidden="1">#REF!</definedName>
     <definedName name="タスクドキュメント１" hidden="1">#REF!</definedName>
     <definedName name="関連表" localSheetId="6" hidden="1">#REF!</definedName>
+    <definedName name="関連表" localSheetId="7" hidden="1">#REF!</definedName>
     <definedName name="関連表" hidden="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -60,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="172">
   <si>
     <t>テスト仕様(テスト・ステップ)／テスト結果</t>
     <rPh sb="19" eb="21">
@@ -1562,6 +1569,215 @@
 &lt;実行コマンド&gt;
 /uspg/jp1/zc/shl/XEBSITO/ZCZZ_LOG_REPL.ksh
 echo $?</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>envファイルの改行対応前後における動作の違いを確認</t>
+    <rPh sb="8" eb="10">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>以下の条件において、シェルを起動
+・ZCZZ_LOG_REPL_LIST.envの処理行に対し、
+　①改行が無いケース
+　②改行があるケース
+で実行を行う。
+&lt;前提条件&gt;
+　・あらかじめ、ZCZZ_LOG_REPL_LIST.envをテスト用のものにさしかえておくこと
+　・ZCZZ_LOG_REPL_LIST.envで対象にしたディレクトリ・ファイルを用意しておくこと
+&lt;実行コマンド&gt;
+/uspg/jp1/zc/shl/XEBSITO/ZCZZ_LOG_REPL.ksh</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">【ログ出力内容】 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>②のケースで、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">「### TEST_LOG ログファイル ###｣　が出力されること
+※envファイル内の処理行が実行されたことを表す
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【ファイル確認】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+②のケースで、予め用意しておいたファイルが正常に処理されていること
+※対象のファイルが0バイトとなり、移動先フォルダへ元のファイルが定義された拡張子で格納される</t>
+    </r>
+    <rPh sb="45" eb="47">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>アラカジ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="139" eb="142">
+      <t>イドウサキ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="159" eb="162">
+      <t>カクチョウシ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>動作確認エビデンス.xlsx</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>障害対応</t>
+    <rPh sb="0" eb="4">
+      <t>ショウガイタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>Issue1.1</t>
+    <phoneticPr fontId="29"/>
+  </si>
+  <si>
+    <t>E_本稼動_19165　障害対応</t>
+    <rPh sb="12" eb="14">
+      <t>ショウガイ</t>
+    </rPh>
     <phoneticPr fontId="29"/>
   </si>
 </sst>
@@ -5390,8 +5606,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A6:H47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:H14"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5521,8 +5737,8 @@
         <v>11</v>
       </c>
       <c r="C23" s="28">
-        <f>MAX(文書管理!B8:B10)</f>
-        <v>45037</v>
+        <f>MAX(文書管理!B8:B11)</f>
+        <v>45168</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="6" customHeight="1">
@@ -5546,8 +5762,8 @@
         <v>133</v>
       </c>
       <c r="C27" s="136" t="str">
-        <f>文書管理!D9</f>
-        <v>Issue1.0</v>
+        <f>文書管理!D10</f>
+        <v>Issue1.1</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -5661,13 +5877,183 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet46"/>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="11.125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="6" customHeight="1">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.25">
+      <c r="A2" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="6" customHeight="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.25">
+      <c r="A5" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A6" s="47"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" thickTop="1">
+      <c r="A7" s="100"/>
+      <c r="B7" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="102" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="103" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+      <c r="A8" s="104"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="108"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.1" customHeight="1" thickTop="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="47"/>
+    </row>
+    <row r="11" spans="1:7" ht="6" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.25">
+      <c r="A12" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A13" s="47"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" thickTop="1">
+      <c r="A14" s="100"/>
+      <c r="B14" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="102" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="103" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.1" customHeight="1">
+      <c r="A15" s="104"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="112"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.1" customHeight="1">
+      <c r="A16" s="104"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="112"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.1" customHeight="1">
+      <c r="A17" s="104"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="112"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+      <c r="A18" s="104"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="108"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" thickTop="1"/>
+  </sheetData>
+  <phoneticPr fontId="29"/>
+  <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="0.86614173228346458" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter xml:space="preserve">&amp;C&amp;10　
+&amp;R&amp;10
+</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5766,59 +6152,67 @@
       <c r="H9" s="55"/>
       <c r="I9" s="56"/>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" thickTop="1">
-      <c r="A11" s="47"/>
-    </row>
-    <row r="12" spans="1:9">
+    <row r="10" spans="1:9">
+      <c r="B10" s="119">
+        <v>45168</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" thickTop="1">
       <c r="A12" s="47"/>
     </row>
-    <row r="13" spans="1:9" ht="3.95" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.25">
-      <c r="A14" s="48" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="47"/>
+    </row>
+    <row r="14" spans="1:9" ht="3.95" customHeight="1">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25">
+      <c r="A15" s="48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="48"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" thickTop="1" thickBot="1">
-      <c r="B16" s="50" t="s">
+    <row r="16" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A16" s="48"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickTop="1" thickBot="1">
+      <c r="B17" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51" t="s">
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="52"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="B17" s="63"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
     </row>
     <row r="18" spans="1:9">
       <c r="B18" s="63"/>
@@ -5840,76 +6234,72 @@
       <c r="H19" s="55"/>
       <c r="I19" s="56"/>
     </row>
-    <row r="20" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B20" s="64"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
-    </row>
-    <row r="21" spans="1:9" ht="14.25" thickTop="1">
-      <c r="A21" s="47"/>
-    </row>
-    <row r="22" spans="1:9">
+    <row r="20" spans="1:9">
+      <c r="B20" s="63"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B21" s="64"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" thickTop="1">
       <c r="A22" s="47"/>
     </row>
-    <row r="23" spans="1:9" ht="3.95" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.25">
-      <c r="A24" s="48" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="47"/>
+    </row>
+    <row r="24" spans="1:9" ht="3.95" customHeight="1">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.25">
+      <c r="A25" s="48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A25" s="48"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" thickTop="1" thickBot="1">
-      <c r="B26" s="50" t="s">
+    <row r="26" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A26" s="48"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickTop="1" thickBot="1">
+      <c r="B27" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C27" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51" t="s">
+      <c r="D27" s="51"/>
+      <c r="E27" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="56"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="55"/>
+        <v>43</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>25</v>
+      </c>
       <c r="D28" s="55"/>
       <c r="E28" s="54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="55"/>
       <c r="G28" s="55"/>
@@ -5918,59 +6308,73 @@
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="55"/>
       <c r="D29" s="55"/>
-      <c r="E29" s="54"/>
+      <c r="E29" s="54" t="s">
+        <v>27</v>
+      </c>
       <c r="F29" s="55"/>
       <c r="G29" s="55"/>
       <c r="H29" s="55"/>
       <c r="I29" s="56"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B30" s="66" t="s">
+    <row r="30" spans="1:9">
+      <c r="B30" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B31" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
-    </row>
-    <row r="31" spans="1:9" ht="14.25" thickTop="1">
-      <c r="A31" s="47"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.25" thickTop="1">
       <c r="A32" s="47"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="47"/>
-      <c r="B33" s="67" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="47"/>
-      <c r="B34" s="6" t="s">
-        <v>68</v>
+      <c r="B34" s="67" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="47"/>
       <c r="B35" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="47"/>
-      <c r="B36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="47"/>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="47"/>
+      <c r="B38" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6730,8 +7134,8 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:I25"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7311,6 +7715,345 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="120" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="120"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="6" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" thickBot="1">
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickTop="1" thickBot="1">
+      <c r="B10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="142" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="143"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickTop="1" thickBot="1">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="147.75" thickBot="1">
+      <c r="B12" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="I12" s="18">
+        <v>45159</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" thickBot="1">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.25" thickBot="1">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" ht="6" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.25">
+      <c r="A17" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" ht="15">
+      <c r="A18" s="125"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+    </row>
+    <row r="19" spans="1:12" ht="15">
+      <c r="A19" s="126"/>
+      <c r="B19" s="129" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="129" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="130" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+    </row>
+    <row r="20" spans="1:12" ht="15">
+      <c r="A20" s="126"/>
+      <c r="B20" s="134" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="134" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="135"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
+    </row>
+    <row r="21" spans="1:12" ht="15">
+      <c r="A21" s="126"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+    </row>
+    <row r="22" spans="1:12" ht="15">
+      <c r="A22" s="126"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+    </row>
+    <row r="23" spans="1:12" ht="15">
+      <c r="A23" s="126"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+    </row>
+    <row r="24" spans="1:12" s="120" customFormat="1" ht="15">
+      <c r="A24" s="126"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" s="120" customFormat="1" ht="15">
+      <c r="A25" s="126"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" s="120" customFormat="1" ht="15">
+      <c r="A26" s="126"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" s="120" customFormat="1" ht="15">
+      <c r="A27" s="126"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" s="120" customFormat="1" ht="15">
+      <c r="A28" s="126"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="L28" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J10:K10"/>
+  </mergeCells>
+  <phoneticPr fontId="29"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -7560,174 +8303,4 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet46"/>
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="11.125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="6" customHeight="1">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" ht="17.25">
-      <c r="A2" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="6" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A6" s="47"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" thickTop="1">
-      <c r="A7" s="100"/>
-      <c r="B7" s="101" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="102" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="103" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="108"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1" thickTop="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="47"/>
-    </row>
-    <row r="11" spans="1:7" ht="6" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.25">
-      <c r="A12" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A13" s="47"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" thickTop="1">
-      <c r="A14" s="100"/>
-      <c r="B14" s="101" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="102" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="103" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A15" s="104"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="112"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A16" s="104"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="112"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A17" s="104"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="112"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A18" s="104"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="108"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" thickTop="1"/>
-  </sheetData>
-  <phoneticPr fontId="29"/>
-  <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="0.86614173228346458" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter xml:space="preserve">&amp;C&amp;10　
-&amp;R&amp;10
-</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>